--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>White</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>

--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Not Hispanic or Latino</t>
+          <t>Hispanic or Latino</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other Race</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
     </row>

--- a/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/CDF_CH_sub_1_stratification.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Asian</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other Race</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hispanic or Latino</t>
+          <t>Not Hispanic or Latino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
     </row>
